--- a/Data/EC/NIT-8605175603.xlsx
+++ b/Data/EC/NIT-8605175603.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA7C1502-1119-4DA6-8C34-789EC989AEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4650764C-D95C-4C7A-B851-2E07FDC8B0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A4BFC31C-1313-423B-975B-49BEBCC57E28}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F279442-7CC5-4CA9-A290-4EA7FFBAB758}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="140">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,394 +71,358 @@
     <t>LUIS CARLOS PEÑA ORTIZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>73577049</t>
+  </si>
+  <si>
+    <t>EDILBERTO ORTEGA DIAZ</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1098697844</t>
+  </si>
+  <si>
+    <t>MARIO CERVERA PADILLA</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>1193047266</t>
+  </si>
+  <si>
+    <t>YEFFERSON ENRIQUE TEJEDOR LARA</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>1001090051</t>
+  </si>
+  <si>
+    <t>OSWALDO CHARRY SOLA</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>73577049</t>
-  </si>
-  <si>
-    <t>EDILBERTO ORTEGA DIAZ</t>
-  </si>
-  <si>
-    <t>1001090051</t>
-  </si>
-  <si>
-    <t>OSWALDO CHARRY SOLA</t>
-  </si>
-  <si>
-    <t>1098697844</t>
-  </si>
-  <si>
-    <t>MARIO CERVERA PADILLA</t>
-  </si>
-  <si>
-    <t>1193047266</t>
-  </si>
-  <si>
-    <t>YEFFERSON ENRIQUE TEJEDOR LARA</t>
-  </si>
-  <si>
-    <t>1007256587</t>
-  </si>
-  <si>
-    <t>ELIAN JESUS NARVAEZ CONTRERAS</t>
-  </si>
-  <si>
-    <t>1047512205</t>
-  </si>
-  <si>
-    <t>STIWARD DAVID ATENCIO MONCARIS</t>
-  </si>
-  <si>
-    <t>1002243741</t>
-  </si>
-  <si>
-    <t>ESTIN DAVID MENDOZA BANQUEZ</t>
-  </si>
-  <si>
-    <t>1143368675</t>
-  </si>
-  <si>
-    <t>JORGE ENRIQUE PEREZ RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>5303152</t>
-  </si>
-  <si>
-    <t>JASMIN GABRIELA RODRIGUEZ PARRA</t>
-  </si>
-  <si>
-    <t>45715289</t>
-  </si>
-  <si>
-    <t>VIANETH PATRICIA MORENO PUELLO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -557,7 +521,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -570,9 +536,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -772,23 +736,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -816,10 +780,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -872,7 +836,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32BECB9C-73A0-BD9D-0154-3346090136A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009707EF-D4F2-8C1E-830C-495B4342B550}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,8 +1187,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A1DA42-37EB-43D2-A050-25DF8DB9F1BB}">
-  <dimension ref="B2:J348"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96123D37-6803-4B0D-BD9D-B1E16EDCEBF7}">
+  <dimension ref="B2:J318"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1235,7 +1199,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1248,7 +1212,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1293,7 +1257,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1325,12 +1289,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>10649289</v>
+        <v>9134512</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1341,17 +1305,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1378,13 +1342,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1401,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1415,16 +1379,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1444,10 +1408,10 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1461,16 +1425,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1493,7 +1457,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1507,16 +1471,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1536,10 +1500,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1553,16 +1517,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1582,10 +1546,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1599,16 +1563,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1628,10 +1592,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1645,16 +1609,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1674,10 +1638,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1691,16 +1655,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1720,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1737,16 +1701,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1766,10 +1730,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1783,16 +1747,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1812,10 +1776,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1829,16 +1793,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1858,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1875,16 +1839,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1904,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1921,16 +1885,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1950,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1967,16 +1931,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1996,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -2013,16 +1977,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -2042,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -2059,16 +2023,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -2088,10 +2052,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -2105,16 +2069,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -2134,10 +2098,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -2151,16 +2115,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -2180,10 +2144,10 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -2197,16 +2161,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2226,10 +2190,10 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2243,16 +2207,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2272,10 +2236,10 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2289,16 +2253,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2318,10 +2282,10 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2335,16 +2299,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2364,10 +2328,10 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2381,16 +2345,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2410,10 +2374,10 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2427,16 +2391,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2456,10 +2420,10 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2473,16 +2437,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2502,10 +2466,10 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2519,16 +2483,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2548,10 +2512,10 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2565,16 +2529,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2594,7 +2558,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2611,13 +2575,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2640,7 +2604,7 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2657,13 +2621,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2686,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2703,13 +2667,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2732,7 +2696,7 @@
         <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2749,13 +2713,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2778,7 +2742,7 @@
         <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2795,13 +2759,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2824,7 +2788,7 @@
         <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2841,13 +2805,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2870,7 +2834,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2887,13 +2851,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2916,7 +2880,7 @@
         <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2933,13 +2897,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2962,7 +2926,7 @@
         <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2979,13 +2943,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -3008,7 +2972,7 @@
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -3025,13 +2989,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -3054,7 +3018,7 @@
         <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -3071,13 +3035,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -3094,19 +3058,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G90" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3123,7 +3087,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -3140,13 +3104,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -3163,19 +3127,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G93" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3192,7 +3156,7 @@
         <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -3209,13 +3173,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
@@ -3232,19 +3196,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G96" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3261,7 +3225,7 @@
         <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3278,13 +3242,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F98" s="18">
         <v>31249</v>
@@ -3301,19 +3265,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="F99" s="18">
-        <v>24640</v>
+        <v>33125</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3330,10 +3294,10 @@
         <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="F100" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3347,16 +3311,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="F101" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3370,19 +3334,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="F102" s="18">
-        <v>24640</v>
+        <v>33125</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3399,10 +3363,10 @@
         <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="F103" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3416,16 +3380,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="F104" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3439,19 +3403,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="F105" s="18">
-        <v>24640</v>
+        <v>33125</v>
       </c>
       <c r="G105" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3468,10 +3432,10 @@
         <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="F106" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3485,16 +3449,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="F107" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3508,19 +3472,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="F108" s="18">
-        <v>24640</v>
+        <v>33125</v>
       </c>
       <c r="G108" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3537,10 +3501,10 @@
         <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="F109" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3554,16 +3518,16 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="F110" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
         <v>781242</v>
@@ -3577,19 +3541,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="F111" s="18">
-        <v>24640</v>
+        <v>33125</v>
       </c>
       <c r="G111" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3606,10 +3570,10 @@
         <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="F112" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3623,16 +3587,16 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="F113" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
         <v>781242</v>
@@ -3646,19 +3610,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="F114" s="18">
-        <v>24640</v>
+        <v>33125</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3675,10 +3639,10 @@
         <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="F115" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3692,16 +3656,16 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="F116" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
         <v>781242</v>
@@ -3715,19 +3679,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="F117" s="18">
-        <v>24640</v>
+        <v>33125</v>
       </c>
       <c r="G117" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3744,10 +3708,10 @@
         <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="F118" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G118" s="18">
         <v>781242</v>
@@ -3761,16 +3725,16 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="F119" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
         <v>781242</v>
@@ -3784,19 +3748,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="F120" s="18">
-        <v>24640</v>
+        <v>33125</v>
       </c>
       <c r="G120" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3813,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="F121" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G121" s="18">
         <v>781242</v>
@@ -3830,16 +3794,16 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="F122" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G122" s="18">
         <v>781242</v>
@@ -3853,19 +3817,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="F123" s="18">
-        <v>24640</v>
+        <v>33125</v>
       </c>
       <c r="G123" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3882,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="F124" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
         <v>781242</v>
@@ -3899,13 +3863,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F125" s="18">
         <v>31249</v>
@@ -3922,19 +3886,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G126" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3945,13 +3909,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F127" s="18">
         <v>31249</v>
@@ -3968,13 +3932,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="F128" s="18">
         <v>31249</v>
@@ -3991,19 +3955,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="F129" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G129" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -4014,13 +3978,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="F130" s="18">
         <v>31249</v>
@@ -4037,13 +4001,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="F131" s="18">
         <v>31249</v>
@@ -4060,19 +4024,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F132" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G132" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4083,13 +4047,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -4106,13 +4070,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F134" s="18">
         <v>31249</v>
@@ -4129,19 +4093,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="F135" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G135" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4152,13 +4116,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F136" s="18">
         <v>31249</v>
@@ -4175,13 +4139,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
@@ -4198,19 +4162,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F138" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G138" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4221,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -4244,13 +4208,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
@@ -4267,19 +4231,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="F141" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G141" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4290,13 +4254,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4313,13 +4277,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
@@ -4336,19 +4300,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F144" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G144" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4359,13 +4323,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
@@ -4382,13 +4346,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F146" s="18">
         <v>31249</v>
@@ -4405,19 +4369,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="F147" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G147" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4428,13 +4392,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
@@ -4451,13 +4415,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4474,19 +4438,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="F150" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G150" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4497,13 +4461,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4520,13 +4484,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="F152" s="18">
         <v>31249</v>
@@ -4543,19 +4507,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="F153" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G153" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4566,13 +4530,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="F154" s="18">
         <v>31249</v>
@@ -4589,13 +4553,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="F155" s="18">
         <v>31249</v>
@@ -4612,19 +4576,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="F156" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G156" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4635,13 +4599,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F157" s="18">
         <v>31249</v>
@@ -4658,13 +4622,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F158" s="18">
         <v>31249</v>
@@ -4681,19 +4645,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F159" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G159" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4704,13 +4668,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F160" s="18">
         <v>31249</v>
@@ -4727,13 +4691,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
@@ -4750,19 +4714,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F162" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G162" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4773,13 +4737,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F163" s="18">
         <v>31249</v>
@@ -4796,13 +4760,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F164" s="18">
         <v>31249</v>
@@ -4819,19 +4783,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="F165" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G165" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4842,13 +4806,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="F166" s="18">
         <v>31249</v>
@@ -4865,13 +4829,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F167" s="18">
         <v>31249</v>
@@ -4888,19 +4852,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="F168" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G168" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4911,13 +4875,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F169" s="18">
         <v>31249</v>
@@ -4934,13 +4898,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F170" s="18">
         <v>31249</v>
@@ -4957,19 +4921,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="F171" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G171" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4980,13 +4944,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="F172" s="18">
         <v>31249</v>
@@ -5003,13 +4967,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F173" s="18">
         <v>31249</v>
@@ -5026,19 +4990,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F174" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G174" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -5049,13 +5013,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F175" s="18">
         <v>31249</v>
@@ -5072,13 +5036,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F176" s="18">
         <v>31249</v>
@@ -5095,19 +5059,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F177" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G177" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5118,13 +5082,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F178" s="18">
         <v>31249</v>
@@ -5141,13 +5105,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F179" s="18">
         <v>31249</v>
@@ -5164,19 +5128,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F180" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G180" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5187,13 +5151,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F181" s="18">
         <v>31249</v>
@@ -5210,13 +5174,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F182" s="18">
         <v>31249</v>
@@ -5233,19 +5197,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F183" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G183" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5256,13 +5220,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F184" s="18">
         <v>31249</v>
@@ -5279,13 +5243,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F185" s="18">
         <v>31249</v>
@@ -5302,19 +5266,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F186" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G186" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5325,13 +5289,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F187" s="18">
         <v>31249</v>
@@ -5348,13 +5312,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F188" s="18">
         <v>31249</v>
@@ -5371,19 +5335,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F189" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G189" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5394,13 +5358,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F190" s="18">
         <v>31249</v>
@@ -5417,13 +5381,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F191" s="18">
         <v>31249</v>
@@ -5440,19 +5404,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F192" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G192" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5463,13 +5427,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F193" s="18">
         <v>31249</v>
@@ -5486,13 +5450,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F194" s="18">
         <v>31249</v>
@@ -5509,19 +5473,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F195" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G195" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5532,19 +5496,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F196" s="18">
-        <v>31249</v>
+        <v>30666</v>
       </c>
       <c r="G196" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5555,13 +5519,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F197" s="18">
         <v>31249</v>
@@ -5578,13 +5542,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F198" s="18">
         <v>31249</v>
@@ -5601,19 +5565,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F199" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G199" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5624,19 +5588,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F200" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G200" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5647,13 +5611,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F201" s="18">
         <v>31249</v>
@@ -5670,13 +5634,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F202" s="18">
         <v>31249</v>
@@ -5693,19 +5657,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F203" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G203" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5716,13 +5680,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F204" s="18">
         <v>31249</v>
@@ -5739,10 +5703,10 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E205" s="16" t="s">
         <v>91</v>
@@ -5762,19 +5726,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F206" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G206" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5785,13 +5749,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F207" s="18">
         <v>31249</v>
@@ -5808,16 +5772,16 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F208" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G208" s="18">
         <v>781242</v>
@@ -5831,19 +5795,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F209" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G209" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5854,16 +5818,16 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F210" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G210" s="18">
         <v>781242</v>
@@ -5877,16 +5841,16 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F211" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G211" s="18">
         <v>781242</v>
@@ -5900,19 +5864,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F212" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G212" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5923,16 +5887,16 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F213" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G213" s="18">
         <v>781242</v>
@@ -5946,16 +5910,16 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F214" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G214" s="18">
         <v>781242</v>
@@ -5969,19 +5933,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F215" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G215" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5992,16 +5956,16 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F216" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G216" s="18">
         <v>781242</v>
@@ -6015,16 +5979,16 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F217" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G217" s="18">
         <v>781242</v>
@@ -6038,19 +6002,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F218" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G218" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6061,16 +6025,16 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F219" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G219" s="18">
         <v>781242</v>
@@ -6084,16 +6048,16 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F220" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G220" s="18">
         <v>781242</v>
@@ -6107,19 +6071,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F221" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G221" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6130,16 +6094,16 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F222" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G222" s="18">
         <v>781242</v>
@@ -6153,16 +6117,16 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F223" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G223" s="18">
         <v>781242</v>
@@ -6176,19 +6140,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F224" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G224" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6199,16 +6163,16 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F225" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G225" s="18">
         <v>781242</v>
@@ -6222,16 +6186,16 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F226" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G226" s="18">
         <v>781242</v>
@@ -6245,19 +6209,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F227" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G227" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6268,16 +6232,16 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F228" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G228" s="18">
         <v>781242</v>
@@ -6291,16 +6255,16 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F229" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G229" s="18">
         <v>781242</v>
@@ -6314,19 +6278,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F230" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G230" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6337,16 +6301,16 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F231" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G231" s="18">
         <v>781242</v>
@@ -6360,16 +6324,16 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F232" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G232" s="18">
         <v>781242</v>
@@ -6383,19 +6347,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F233" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G233" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6406,19 +6370,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="F234" s="18">
-        <v>52000</v>
+        <v>31249</v>
       </c>
       <c r="G234" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6429,19 +6393,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="F235" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G235" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6452,13 +6416,13 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="F236" s="18">
         <v>33125</v>
@@ -6475,19 +6439,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="F237" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G237" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6498,19 +6462,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="F238" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G238" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6521,13 +6485,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="F239" s="18">
         <v>33125</v>
@@ -6544,19 +6508,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="F240" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G240" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6567,19 +6531,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="F241" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G241" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6590,13 +6554,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="F242" s="18">
         <v>33125</v>
@@ -6613,19 +6577,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F243" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G243" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6636,19 +6600,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F244" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G244" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6659,13 +6623,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="F245" s="18">
         <v>33125</v>
@@ -6682,19 +6646,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F246" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G246" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6705,19 +6669,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="F247" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G247" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6728,13 +6692,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="F248" s="18">
         <v>33125</v>
@@ -6751,19 +6715,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="F249" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G249" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6774,19 +6738,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="F250" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G250" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6797,13 +6761,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="F251" s="18">
         <v>33125</v>
@@ -6820,19 +6784,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="F252" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G252" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6843,19 +6807,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="F253" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G253" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6866,13 +6830,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="F254" s="18">
         <v>33125</v>
@@ -6889,19 +6853,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="F255" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G255" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6912,19 +6876,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="F256" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G256" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6935,13 +6899,13 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="F257" s="18">
         <v>33125</v>
@@ -6958,19 +6922,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="F258" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G258" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6981,19 +6945,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="F259" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G259" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -7004,13 +6968,13 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="F260" s="18">
         <v>33125</v>
@@ -7027,19 +6991,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F261" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G261" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -7050,19 +7014,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="F262" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G262" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -7073,19 +7037,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="F263" s="18">
-        <v>33125</v>
+        <v>52000</v>
       </c>
       <c r="G263" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -7096,13 +7060,13 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="F264" s="18">
         <v>33125</v>
@@ -7119,19 +7083,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="F265" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G265" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7142,19 +7106,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="F266" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G266" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7165,13 +7129,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="F267" s="18">
         <v>33125</v>
@@ -7188,19 +7152,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="F268" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G268" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7211,19 +7175,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F269" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G269" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7234,13 +7198,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="F270" s="18">
         <v>33125</v>
@@ -7257,19 +7221,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="F271" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G271" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7280,19 +7244,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="F272" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G272" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -7303,13 +7267,13 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="F273" s="18">
         <v>33125</v>
@@ -7326,19 +7290,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="F274" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G274" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7349,19 +7313,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="F275" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G275" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7372,13 +7336,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F276" s="18">
         <v>33125</v>
@@ -7395,19 +7359,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="F277" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G277" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7418,19 +7382,19 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="F278" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G278" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H278" s="19"/>
       <c r="I278" s="19"/>
@@ -7441,13 +7405,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="F279" s="18">
         <v>33125</v>
@@ -7464,19 +7428,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="F280" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G280" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -7487,19 +7451,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="F281" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G281" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7510,13 +7474,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="F282" s="18">
         <v>33125</v>
@@ -7533,19 +7497,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="F283" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G283" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7556,19 +7520,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="F284" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G284" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7579,13 +7543,13 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="F285" s="18">
         <v>33125</v>
@@ -7602,19 +7566,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="F286" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G286" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -7625,19 +7589,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="F287" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G287" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7648,13 +7612,13 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="F288" s="18">
         <v>33125</v>
@@ -7671,19 +7635,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="F289" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G289" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7694,19 +7658,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="F290" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G290" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7717,13 +7681,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="F291" s="18">
         <v>33125</v>
@@ -7740,19 +7704,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="F292" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G292" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7763,19 +7727,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="F293" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G293" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7786,13 +7750,13 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="F294" s="18">
         <v>33125</v>
@@ -7809,19 +7773,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="F295" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G295" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7832,19 +7796,19 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="F296" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G296" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H296" s="19"/>
       <c r="I296" s="19"/>
@@ -7855,13 +7819,13 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="F297" s="18">
         <v>33125</v>
@@ -7878,19 +7842,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D298" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E298" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D298" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E298" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="F298" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G298" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7901,19 +7865,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E299" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D299" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E299" s="16" t="s">
-        <v>75</v>
-      </c>
       <c r="F299" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G299" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -7924,13 +7888,13 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D300" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E300" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="D300" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E300" s="16" t="s">
-        <v>76</v>
       </c>
       <c r="F300" s="18">
         <v>33125</v>
@@ -7947,19 +7911,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D301" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E301" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E301" s="16" t="s">
-        <v>77</v>
-      </c>
       <c r="F301" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G301" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -7970,19 +7934,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D302" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E302" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E302" s="16" t="s">
-        <v>78</v>
-      </c>
       <c r="F302" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G302" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -7993,13 +7957,13 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D303" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E303" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="E303" s="16" t="s">
-        <v>79</v>
       </c>
       <c r="F303" s="18">
         <v>33125</v>
@@ -8016,19 +7980,19 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="F304" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G304" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H304" s="19"/>
       <c r="I304" s="19"/>
@@ -8039,19 +8003,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="F305" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G305" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -8062,13 +8026,13 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="F306" s="18">
         <v>33125</v>
@@ -8085,19 +8049,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="F307" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G307" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -8108,19 +8072,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D308" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E308" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E308" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="F308" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G308" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8131,19 +8095,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="D309" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E309" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E309" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="F309" s="18">
-        <v>30666</v>
+        <v>33125</v>
       </c>
       <c r="G309" s="18">
-        <v>877803</v>
+        <v>828116</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -8154,19 +8118,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D310" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E310" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D310" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E310" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F310" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G310" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8177,765 +8141,75 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D311" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E311" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D311" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E311" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F311" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G311" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
       <c r="J311" s="20"/>
     </row>
     <row r="312" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B312" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C312" s="16" t="s">
+      <c r="B312" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C312" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D312" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E312" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D312" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E312" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F312" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G312" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H312" s="19"/>
-      <c r="I312" s="19"/>
-      <c r="J312" s="20"/>
-    </row>
-    <row r="313" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B313" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C313" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D313" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E313" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F313" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G313" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H313" s="19"/>
-      <c r="I313" s="19"/>
-      <c r="J313" s="20"/>
-    </row>
-    <row r="314" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B314" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C314" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D314" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E314" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F314" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G314" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H314" s="19"/>
-      <c r="I314" s="19"/>
-      <c r="J314" s="20"/>
-    </row>
-    <row r="315" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B315" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C315" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D315" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E315" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F315" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G315" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H315" s="19"/>
-      <c r="I315" s="19"/>
-      <c r="J315" s="20"/>
-    </row>
-    <row r="316" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B316" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C316" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D316" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E316" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F316" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G316" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H316" s="19"/>
-      <c r="I316" s="19"/>
-      <c r="J316" s="20"/>
+      <c r="F312" s="24">
+        <v>33125</v>
+      </c>
+      <c r="G312" s="24">
+        <v>828116</v>
+      </c>
+      <c r="H312" s="25"/>
+      <c r="I312" s="25"/>
+      <c r="J312" s="26"/>
     </row>
     <row r="317" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B317" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C317" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D317" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E317" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F317" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G317" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H317" s="19"/>
-      <c r="I317" s="19"/>
-      <c r="J317" s="20"/>
+      <c r="B317" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C317" s="32"/>
+      <c r="H317" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I317" s="1"/>
+      <c r="J317" s="1"/>
     </row>
     <row r="318" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B318" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C318" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D318" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E318" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F318" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G318" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H318" s="19"/>
-      <c r="I318" s="19"/>
-      <c r="J318" s="20"/>
-    </row>
-    <row r="319" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B319" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C319" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D319" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E319" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F319" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G319" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H319" s="19"/>
-      <c r="I319" s="19"/>
-      <c r="J319" s="20"/>
-    </row>
-    <row r="320" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B320" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C320" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D320" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E320" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F320" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G320" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H320" s="19"/>
-      <c r="I320" s="19"/>
-      <c r="J320" s="20"/>
-    </row>
-    <row r="321" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B321" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C321" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D321" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E321" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F321" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G321" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H321" s="19"/>
-      <c r="I321" s="19"/>
-      <c r="J321" s="20"/>
-    </row>
-    <row r="322" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B322" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C322" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D322" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E322" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F322" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G322" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H322" s="19"/>
-      <c r="I322" s="19"/>
-      <c r="J322" s="20"/>
-    </row>
-    <row r="323" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B323" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C323" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D323" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E323" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F323" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G323" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H323" s="19"/>
-      <c r="I323" s="19"/>
-      <c r="J323" s="20"/>
-    </row>
-    <row r="324" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B324" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C324" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D324" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E324" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F324" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G324" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H324" s="19"/>
-      <c r="I324" s="19"/>
-      <c r="J324" s="20"/>
-    </row>
-    <row r="325" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B325" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C325" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D325" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E325" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F325" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G325" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H325" s="19"/>
-      <c r="I325" s="19"/>
-      <c r="J325" s="20"/>
-    </row>
-    <row r="326" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B326" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C326" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D326" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E326" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F326" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G326" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H326" s="19"/>
-      <c r="I326" s="19"/>
-      <c r="J326" s="20"/>
-    </row>
-    <row r="327" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B327" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C327" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D327" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E327" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F327" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G327" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H327" s="19"/>
-      <c r="I327" s="19"/>
-      <c r="J327" s="20"/>
-    </row>
-    <row r="328" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B328" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C328" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D328" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E328" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F328" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G328" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H328" s="19"/>
-      <c r="I328" s="19"/>
-      <c r="J328" s="20"/>
-    </row>
-    <row r="329" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B329" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C329" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D329" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E329" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F329" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G329" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H329" s="19"/>
-      <c r="I329" s="19"/>
-      <c r="J329" s="20"/>
-    </row>
-    <row r="330" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B330" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C330" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D330" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E330" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F330" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G330" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H330" s="19"/>
-      <c r="I330" s="19"/>
-      <c r="J330" s="20"/>
-    </row>
-    <row r="331" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B331" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C331" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D331" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E331" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F331" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G331" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H331" s="19"/>
-      <c r="I331" s="19"/>
-      <c r="J331" s="20"/>
-    </row>
-    <row r="332" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B332" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C332" s="16" t="s">
+      <c r="B318" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="D332" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E332" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F332" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G332" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H332" s="19"/>
-      <c r="I332" s="19"/>
-      <c r="J332" s="20"/>
-    </row>
-    <row r="333" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B333" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C333" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D333" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E333" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F333" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G333" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H333" s="19"/>
-      <c r="I333" s="19"/>
-      <c r="J333" s="20"/>
-    </row>
-    <row r="334" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B334" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C334" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D334" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E334" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F334" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G334" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H334" s="19"/>
-      <c r="I334" s="19"/>
-      <c r="J334" s="20"/>
-    </row>
-    <row r="335" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B335" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C335" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D335" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E335" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F335" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G335" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H335" s="19"/>
-      <c r="I335" s="19"/>
-      <c r="J335" s="20"/>
-    </row>
-    <row r="336" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B336" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C336" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D336" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E336" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F336" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G336" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H336" s="19"/>
-      <c r="I336" s="19"/>
-      <c r="J336" s="20"/>
-    </row>
-    <row r="337" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B337" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C337" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D337" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E337" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F337" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G337" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H337" s="19"/>
-      <c r="I337" s="19"/>
-      <c r="J337" s="20"/>
-    </row>
-    <row r="338" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B338" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C338" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D338" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E338" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F338" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G338" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H338" s="19"/>
-      <c r="I338" s="19"/>
-      <c r="J338" s="20"/>
-    </row>
-    <row r="339" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B339" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C339" s="16" t="s">
+      <c r="C318" s="32"/>
+      <c r="H318" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D339" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E339" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F339" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G339" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H339" s="19"/>
-      <c r="I339" s="19"/>
-      <c r="J339" s="20"/>
-    </row>
-    <row r="340" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B340" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C340" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D340" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E340" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F340" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G340" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H340" s="19"/>
-      <c r="I340" s="19"/>
-      <c r="J340" s="20"/>
-    </row>
-    <row r="341" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B341" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C341" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D341" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E341" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F341" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G341" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H341" s="19"/>
-      <c r="I341" s="19"/>
-      <c r="J341" s="20"/>
-    </row>
-    <row r="342" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B342" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C342" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D342" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E342" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F342" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G342" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H342" s="25"/>
-      <c r="I342" s="25"/>
-      <c r="J342" s="26"/>
-    </row>
-    <row r="347" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B347" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C347" s="32"/>
-      <c r="H347" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I347" s="1"/>
-      <c r="J347" s="1"/>
-    </row>
-    <row r="348" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B348" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C348" s="32"/>
-      <c r="H348" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I348" s="1"/>
-      <c r="J348" s="1"/>
+      <c r="I318" s="1"/>
+      <c r="J318" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B348:C348"/>
-    <mergeCell ref="B347:C347"/>
-    <mergeCell ref="H348:J348"/>
-    <mergeCell ref="H347:J347"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="B317:C317"/>
+    <mergeCell ref="H318:J318"/>
+    <mergeCell ref="H317:J317"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
